--- a/Assets/GameConfig/AudioConfig.xlsx
+++ b/Assets/GameConfig/AudioConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>AudioMixerGroup</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,53 +66,60 @@
     <t>GameEvent_sunnyDay</t>
   </si>
   <si>
+    <t>Interact_processingFood</t>
+  </si>
+  <si>
+    <t>Interact_resourceCollectComplete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interact_startContactTipSound</t>
+  </si>
+  <si>
+    <t>PlayerBehavior_footstep</t>
+  </si>
+  <si>
+    <t>UI_diaryBtnPauseGame</t>
+  </si>
+  <si>
+    <t>UI_diaryBtnRusumeGame</t>
+  </si>
+  <si>
+    <t>UI_openDiary</t>
+  </si>
+  <si>
+    <t>UI_turnDiaryPage</t>
+  </si>
+  <si>
+    <t>GameEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_hungerValueIncreased</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_fatigueValueIncreased</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完Excel后务必使用ExcelTool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Interact_build_restoreIsland_processFoodComplete</t>
-  </si>
-  <si>
-    <t>Interact_processingFood</t>
-  </si>
-  <si>
-    <t>Interact_resourceCollectComplete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interact_startContactTipSound</t>
-  </si>
-  <si>
-    <t>Player_FatigueValueStateChanged</t>
-  </si>
-  <si>
-    <t>Player_hungerValueStateChanged</t>
-  </si>
-  <si>
-    <t>PlayerBehavior_footstep</t>
-  </si>
-  <si>
-    <t>UI_diaryBtnPauseGame</t>
-  </si>
-  <si>
-    <t>UI_diaryBtnRusumeGame</t>
-  </si>
-  <si>
-    <t>UI_openDiary</t>
-  </si>
-  <si>
-    <t>UI_turnDiaryPage</t>
-  </si>
-  <si>
-    <t>GameEvent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -120,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +140,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -156,8 +170,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -441,7 +456,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -450,6 +465,7 @@
     <col min="2" max="2" width="18.875" customWidth="1"/>
     <col min="3" max="3" width="15.375" customWidth="1"/>
     <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -469,7 +485,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -477,7 +493,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -487,6 +503,9 @@
       </c>
       <c r="E2" t="b">
         <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -494,7 +513,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -511,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -525,10 +544,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -593,7 +612,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -610,7 +629,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -627,7 +646,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -644,10 +663,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -661,10 +680,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -678,10 +697,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -695,10 +714,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -712,10 +731,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -729,10 +748,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -746,10 +765,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
         <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
       </c>
       <c r="C18">
         <v>1</v>

--- a/Assets/GameConfig/AudioConfig.xlsx
+++ b/Assets/GameConfig/AudioConfig.xlsx
@@ -73,53 +73,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>PlayerBehavior_footstep</t>
+  </si>
+  <si>
+    <t>UI_diaryBtnPauseGame</t>
+  </si>
+  <si>
+    <t>UI_diaryBtnRusumeGame</t>
+  </si>
+  <si>
+    <t>UI_openDiary</t>
+  </si>
+  <si>
+    <t>UI_turnDiaryPage</t>
+  </si>
+  <si>
+    <t>GameEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_hungerValueIncreased</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_fatigueValueIncreased</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完Excel后务必使用ExcelTool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interact_build_restoreIsland_processFoodComplete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Interact_startContactTipSound</t>
-  </si>
-  <si>
-    <t>PlayerBehavior_footstep</t>
-  </si>
-  <si>
-    <t>UI_diaryBtnPauseGame</t>
-  </si>
-  <si>
-    <t>UI_diaryBtnRusumeGame</t>
-  </si>
-  <si>
-    <t>UI_openDiary</t>
-  </si>
-  <si>
-    <t>UI_turnDiaryPage</t>
-  </si>
-  <si>
-    <t>GameEvent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player_hungerValueIncreased</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player_fatigueValueIncreased</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改完Excel后务必使用ExcelTool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interact_build_restoreIsland_processFoodComplete</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,7 +457,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -485,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -493,7 +494,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -505,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -513,7 +514,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -530,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -544,10 +545,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -646,13 +647,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -663,10 +664,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -680,10 +681,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -697,10 +698,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -714,10 +715,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -731,10 +732,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -748,10 +749,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -765,10 +766,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>1</v>

--- a/Assets/GameConfig/AudioConfig.xlsx
+++ b/Assets/GameConfig/AudioConfig.xlsx
@@ -457,7 +457,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -551,7 +551,7 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>

--- a/Assets/GameConfig/AudioConfig.xlsx
+++ b/Assets/GameConfig/AudioConfig.xlsx
@@ -57,70 +57,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Interact_resourceCollectComplete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_hungerValueIncreased</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_fatigueValueIncreased</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完Excel后务必使用ExcelTool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interact_build_restoreIsland_processFoodComplete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interact_startContactTipSound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GameEvent_rainDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GameEvent_stormComing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GameEvent_sunnyDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Interact_processingFood</t>
-  </si>
-  <si>
-    <t>Interact_resourceCollectComplete</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PlayerBehavior_footstep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UI_diaryBtnPauseGame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UI_diaryBtnRusumeGame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UI_openDiary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UI_turnDiaryPage</t>
-  </si>
-  <si>
-    <t>GameEvent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player_hungerValueIncreased</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player_fatigueValueIncreased</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改完Excel后务必使用ExcelTool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interact_build_restoreIsland_processFoodComplete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interact_startContactTipSound</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +466,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E18" sqref="A2:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -486,15 +495,15 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -506,15 +515,15 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -528,10 +537,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -545,10 +554,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>0.5</v>
@@ -613,7 +622,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -630,7 +639,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -647,7 +656,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -664,10 +673,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -681,10 +690,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -698,10 +707,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -715,10 +724,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -732,10 +741,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -749,10 +758,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -766,10 +775,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>1</v>

--- a/Assets/GameConfig/AudioConfig.xlsx
+++ b/Assets/GameConfig/AudioConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>AudioMixerGroup</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,35 @@
   </si>
   <si>
     <t>UI_turnDiaryPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM_02</t>
+  </si>
+  <si>
+    <t>BGM_03</t>
+  </si>
+  <si>
+    <t>BGM_04</t>
+  </si>
+  <si>
+    <t>BGM_05</t>
+  </si>
+  <si>
+    <t>BGM_06</t>
+  </si>
+  <si>
+    <t>BGM_07</t>
+  </si>
+  <si>
+    <t>BGM_08</t>
+  </si>
+  <si>
+    <t>BGM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="A2:E18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -790,6 +819,142 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
